--- a/tables_and_figures/sites_abund_gte2.xlsx
+++ b/tables_and_figures/sites_abund_gte2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t xml:space="preserve">Dog</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">EGR2</t>
   </si>
   <si>
-    <t xml:space="preserve">RHOBTB1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sanger</t>
   </si>
   <si>
@@ -275,24 +272,24 @@
     <t xml:space="preserve">chr4+14802452</t>
   </si>
   <si>
+    <t xml:space="preserve">chr25+34591807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21-39487582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYOD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr5-78404628</t>
   </si>
   <si>
     <t xml:space="preserve">ZFHX3</t>
   </si>
   <si>
-    <t xml:space="preserve">chr25+34591807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr21-39487582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEKHA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYOD1</t>
-  </si>
-  <si>
     <t xml:space="preserve">chr4+14849034</t>
   </si>
   <si>
@@ -371,34 +368,112 @@
     <t xml:space="preserve">FGF5</t>
   </si>
   <si>
+    <t xml:space="preserve">chr18+48501970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13-21450894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14709639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4+14782170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-39589762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIXL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-48543799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-48623683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8+72693342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAG2,PACS2,TMEM121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18+48736726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11*26044659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15+6230997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRAP3</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr18+48500622</t>
   </si>
   <si>
-    <t xml:space="preserve">chr18+48501970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr13-21450894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14709639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4+14782170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-39589762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUSP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIXL1</t>
+    <t xml:space="preserve">chr2*32199118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITRM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14789791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14785464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14713726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-48584297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18*48722018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18+48584456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr25-30507351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21-6506179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRE11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr25-34590999</t>
   </si>
   <si>
     <t xml:space="preserve">chr7+67593155</t>
@@ -407,360 +482,282 @@
     <t xml:space="preserve">YES1</t>
   </si>
   <si>
-    <t xml:space="preserve">chr18-48543799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18-48623683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8+72693342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAG2,PACS2,TMEM121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18+48736726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11*26044659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15+6230997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THRAP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2*32199118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITRM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14789791</t>
+    <t xml:space="preserve">chrX+71350380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2-66688859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-48513636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14788834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4*14722170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-45651422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC105378068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10-45097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM178B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNNM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15+39094941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKS1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr30-23830049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINDY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCNT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr33+11774631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr36-24205150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2E3,UBE2E4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9-36088961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17orf64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+116987164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBM42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FXYD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+116987171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10+1129800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR9C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2+73264837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDHHC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr34+21096771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5+61633275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERRFI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7-40039717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53BP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7+61474770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHST9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8-7267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9+4143400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST6GALNAC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST6GALNAC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+38773155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-86823525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGN2P46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10-331748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERBB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18+48736654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr34+38763204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAALADL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr36-9749057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRB14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4*14701825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14924592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4+14715301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13+62168428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASSF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-44600867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18-48821243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP2K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4*14641819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14713052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4-14841073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4+14805710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8-3461643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC7A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10+34424210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3RF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANBP2</t>
   </si>
   <si>
     <t xml:space="preserve">chr18-48645201</t>
   </si>
   <si>
-    <t xml:space="preserve">chr4-14785464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14713726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18-48584297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18*48722018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18+48584456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr25-30507351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STMN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr21-6506179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRE11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr25-34590999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrX+71350380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2-66688859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIAH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18-48513636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14788834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4*14722170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-45651422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC105378068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARID1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10-45097655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM178B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNNM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15+39094941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKS1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APAF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr30-23830049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINDY2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCNT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr33+11774631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr36-24205150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2E3,UBE2E4P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDE11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9-36088961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17orf64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+116987164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBM42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FXYD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+116987171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10+1129800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR9C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2+73264837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZDHHC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr34+21096771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr5+61633275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERRFI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7-40039717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53BP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7+61474770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHST9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8-7267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9+4143400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST6GALNAC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST6GALNAC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+38773155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-86823525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGN2P46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10-331748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERBB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18+48736654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr34+38763204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAALADL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr36-9749057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4*14701825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14924592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4+14715301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr13+62168428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RASSF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18-44600867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18-48821243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAP2K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4*14641819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14713052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4-14841073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4+14805710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8-3461643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC7A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL2L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr10+34424210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH3RF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANBP2</t>
-  </si>
-  <si>
     <t xml:space="preserve">chr2-20988823</t>
   </si>
   <si>
@@ -1227,15 +1224,6 @@
   </si>
   <si>
     <t xml:space="preserve">WNT3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2+64665745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYLD</t>
   </si>
   <si>
     <t xml:space="preserve">chr27+40595108</t>
@@ -2061,13 +2049,13 @@
         <v>-21855</v>
       </c>
       <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-21855</v>
+      </c>
+      <c r="J11" t="s">
         <v>37</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-1645118</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2078,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -2087,19 +2075,19 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
         <v>674</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" t="n">
         <v>1816387</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2110,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
         <v>31</v>
@@ -2140,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
         <v>30</v>
@@ -2149,16 +2137,16 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
-        <v>-1463629</v>
+        <v>153044</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -2172,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
         <v>28</v>
@@ -2181,13 +2169,13 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
       </c>
       <c r="I15" t="n">
         <v>-1097001</v>
@@ -2204,7 +2192,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
         <v>28</v>
@@ -2213,19 +2201,19 @@
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
         <v>-5864</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
         <v>-5864</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2236,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>27</v>
@@ -2266,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>26</v>
@@ -2281,10 +2269,10 @@
         <v>-19083</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" t="n">
-        <v>-1642346</v>
+        <v>-19083</v>
       </c>
       <c r="J18"/>
     </row>
@@ -2296,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
         <v>26</v>
@@ -2311,13 +2299,13 @@
         <v>-121025</v>
       </c>
       <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-121025</v>
+      </c>
+      <c r="J19" t="s">
         <v>37</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-1744288</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -2328,7 +2316,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>24</v>
@@ -2343,10 +2331,10 @@
         <v>-45706</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>-1668969</v>
+        <v>-45706</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2360,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
@@ -2375,10 +2363,10 @@
         <v>-87057</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" t="n">
-        <v>-1710320</v>
+        <v>-87057</v>
       </c>
       <c r="J21"/>
     </row>
@@ -2390,7 +2378,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
         <v>22</v>
@@ -2399,13 +2387,13 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>57</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
       </c>
       <c r="I22" t="n">
         <v>530445</v>
@@ -2420,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
         <v>21</v>
@@ -2435,10 +2423,10 @@
         <v>-77059</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" t="n">
-        <v>-1700322</v>
+        <v>-77059</v>
       </c>
       <c r="J23"/>
     </row>
@@ -2450,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
         <v>21</v>
@@ -2459,16 +2447,16 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
         <v>-17060</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" t="n">
-        <v>-1592495</v>
+        <v>24178</v>
       </c>
       <c r="J24"/>
     </row>
@@ -2480,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -2495,13 +2483,13 @@
         <v>-89160</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" t="n">
-        <v>-1712423</v>
+        <v>-89160</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -2512,7 +2500,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
         <v>19</v>
@@ -2521,13 +2509,13 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>65</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>66</v>
       </c>
       <c r="I26" t="n">
         <v>57500</v>
@@ -2536,13 +2524,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
       </c>
       <c r="D27" t="n">
         <v>18</v>
@@ -2557,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" t="n">
-        <v>-1620987</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -2574,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" t="n">
         <v>17</v>
@@ -2589,10 +2577,10 @@
         <v>-865</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>-1624128</v>
+        <v>-865</v>
       </c>
       <c r="J28"/>
     </row>
@@ -2604,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="n">
         <v>16</v>
@@ -2625,7 +2613,7 @@
         <v>-47154</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -2636,7 +2624,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
         <v>16</v>
@@ -2645,13 +2633,13 @@
         <v>66</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>65</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
       </c>
       <c r="I30" t="n">
         <v>57350</v>
@@ -2668,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" t="n">
         <v>14</v>
@@ -2677,13 +2665,13 @@
         <v>70</v>
       </c>
       <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>75</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>76</v>
       </c>
       <c r="I31" t="n">
         <v>-76924</v>
@@ -2698,7 +2686,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="n">
         <v>14</v>
@@ -2707,28 +2695,28 @@
         <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" t="n">
         <v>13629</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" t="n">
-        <v>-1509763</v>
+        <v>106910</v>
       </c>
       <c r="J32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
@@ -2743,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" t="n">
-        <v>-1621625</v>
+        <v>0</v>
       </c>
       <c r="J33"/>
     </row>
@@ -2758,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
@@ -2767,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="n">
         <v>3195</v>
@@ -2779,7 +2767,7 @@
         <v>5806</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2790,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" t="n">
         <v>13</v>
@@ -2805,10 +2793,10 @@
         <v>-20436</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I35" t="n">
-        <v>-1643699</v>
+        <v>-20436</v>
       </c>
       <c r="J35"/>
     </row>
@@ -2820,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" t="n">
         <v>13</v>
@@ -2835,10 +2823,10 @@
         <v>-2153</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" t="n">
-        <v>-1625416</v>
+        <v>-2153</v>
       </c>
       <c r="J36"/>
     </row>
@@ -2850,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -2871,7 +2859,7 @@
         <v>-68377</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -2882,7 +2870,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
@@ -2897,10 +2885,10 @@
         <v>-47670</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" t="n">
-        <v>-1670933</v>
+        <v>-47670</v>
       </c>
       <c r="J38"/>
     </row>
@@ -2912,7 +2900,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
         <v>11</v>
@@ -2927,10 +2915,10 @@
         <v>-90480</v>
       </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39" t="n">
-        <v>-1713743</v>
+        <v>-90480</v>
       </c>
       <c r="J39"/>
     </row>
@@ -2942,25 +2930,25 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="G40" t="n">
-        <v>46069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n">
-        <v>46069</v>
+        <v>0</v>
       </c>
       <c r="J40"/>
     </row>
@@ -2972,25 +2960,25 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-770244</v>
       </c>
       <c r="J41"/>
     </row>
@@ -3008,19 +2996,19 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>46069</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" t="n">
-        <v>-770244</v>
+        <v>46069</v>
       </c>
       <c r="J42"/>
     </row>
@@ -3032,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" t="n">
         <v>9</v>
@@ -3041,16 +3029,16 @@
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" t="n">
         <v>-109158</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" t="n">
-        <v>-1760325</v>
+        <v>-137062</v>
       </c>
       <c r="J43"/>
     </row>
@@ -3062,7 +3050,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -3071,7 +3059,7 @@
         <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" t="n">
         <v>167424</v>
@@ -3092,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="n">
         <v>9</v>
@@ -3122,7 +3110,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -3131,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3152,7 +3140,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -3182,7 +3170,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -3191,7 +3179,7 @@
         <v>66</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" t="n">
         <v>192407</v>
@@ -3206,13 +3194,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
@@ -3221,13 +3209,13 @@
         <v>62</v>
       </c>
       <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>104</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>105</v>
       </c>
       <c r="I49" t="n">
         <v>-877840</v>
@@ -3242,7 +3230,7 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3257,10 +3245,10 @@
         <v>-121019</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" t="n">
-        <v>-1744282</v>
+        <v>-121019</v>
       </c>
       <c r="J50"/>
     </row>
@@ -3272,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -3281,16 +3269,16 @@
         <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" t="n">
-        <v>-1474900</v>
+        <v>141773</v>
       </c>
       <c r="J51"/>
     </row>
@@ -3302,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" t="n">
         <v>6</v>
@@ -3317,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n">
-        <v>-1623141</v>
+        <v>0</v>
       </c>
       <c r="J52"/>
     </row>
@@ -3332,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" t="n">
         <v>5</v>
@@ -3341,13 +3329,13 @@
         <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G53" t="n">
         <v>-13287</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" t="n">
         <v>-2110233</v>
@@ -3362,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" t="n">
         <v>5</v>
@@ -3371,7 +3359,7 @@
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" t="n">
         <v>3202</v>
@@ -3392,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" t="n">
         <v>5</v>
@@ -3407,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" t="n">
-        <v>-1620855</v>
+        <v>0</v>
       </c>
       <c r="J55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
       </c>
       <c r="D56" t="n">
         <v>4</v>
@@ -3431,13 +3419,13 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>117</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>118</v>
       </c>
       <c r="I56" t="n">
         <v>134689</v>
@@ -3446,13 +3434,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -3482,25 +3470,25 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" t="n">
         <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>-1108984</v>
       </c>
       <c r="J58"/>
     </row>
@@ -3512,25 +3500,25 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="I59" t="n">
-        <v>-1108984</v>
+        <v>0</v>
       </c>
       <c r="J59"/>
     </row>
@@ -3542,85 +3530,85 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" t="n">
         <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-70198</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I60" t="n">
-        <v>-1620930</v>
+        <v>-70198</v>
       </c>
       <c r="J60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" t="n">
         <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="G61" t="n">
-        <v>-70198</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I61" t="n">
-        <v>-1693461</v>
+        <v>-165217</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" t="n">
         <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-34091</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I62" t="n">
-        <v>-165217</v>
+        <v>-34091</v>
       </c>
       <c r="J62"/>
     </row>
@@ -3632,94 +3620,94 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>-113975</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>-113975</v>
       </c>
       <c r="J63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>61</v>
+      </c>
+      <c r="F64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>131</v>
       </c>
-      <c r="D64" t="n">
-        <v>4</v>
-      </c>
-      <c r="E64" t="n">
-        <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-34091</v>
-      </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
       <c r="I64" t="n">
-        <v>-34091</v>
+        <v>0</v>
       </c>
       <c r="J64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G65" t="n">
-        <v>-113975</v>
+        <v>216041</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="n">
-        <v>-113975</v>
+        <v>-227018</v>
       </c>
       <c r="J65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>133</v>
@@ -3728,21 +3716,23 @@
         <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
         <v>134</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>-1288</v>
       </c>
       <c r="H66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66"/>
+        <v>-1288</v>
+      </c>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -3752,25 +3742,25 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G67" t="n">
-        <v>216041</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I67" t="n">
-        <v>-227018</v>
+        <v>-208604</v>
       </c>
       <c r="J67"/>
     </row>
@@ -3782,29 +3772,27 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" t="n">
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="G68" t="n">
-        <v>-1288</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I68" t="n">
-        <v>-1288</v>
-      </c>
-      <c r="J68" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -3820,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F69" t="s">
         <v>140</v>
@@ -3832,9 +3820,11 @@
         <v>141</v>
       </c>
       <c r="I69" t="n">
-        <v>-208604</v>
-      </c>
-      <c r="J69"/>
+        <v>535042</v>
+      </c>
+      <c r="J69" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -3850,51 +3840,49 @@
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>-77819</v>
       </c>
       <c r="H70" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="I70" t="n">
-        <v>535042</v>
-      </c>
-      <c r="J70" t="s">
-        <v>28</v>
-      </c>
+        <v>-77819</v>
+      </c>
+      <c r="J70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
         <v>36</v>
       </c>
       <c r="G71" t="n">
-        <v>-77819</v>
+        <v>-73492</v>
       </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I71" t="n">
-        <v>-1701082</v>
+        <v>-73492</v>
       </c>
       <c r="J71"/>
     </row>
@@ -3906,25 +3894,25 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G72" t="n">
-        <v>-135493</v>
+        <v>-1754</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I72" t="n">
-        <v>-135493</v>
+        <v>-1754</v>
       </c>
       <c r="J72"/>
     </row>
@@ -3936,25 +3924,25 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G73" t="n">
-        <v>-73492</v>
+        <v>-74589</v>
       </c>
       <c r="H73" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I73" t="n">
-        <v>-1696755</v>
+        <v>-74589</v>
       </c>
       <c r="J73"/>
     </row>
@@ -3966,27 +3954,29 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" t="n">
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G74" t="n">
-        <v>-1754</v>
+        <v>-212308</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I74" t="n">
-        <v>-1625017</v>
-      </c>
-      <c r="J74"/>
+        <v>-212308</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -3996,25 +3986,25 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75" t="n">
         <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
       </c>
       <c r="G75" t="n">
-        <v>-74589</v>
+        <v>-74748</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
       </c>
       <c r="I75" t="n">
-        <v>-74589</v>
+        <v>-74748</v>
       </c>
       <c r="J75"/>
     </row>
@@ -4026,36 +4016,34 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
-        <v>-212308</v>
+        <v>155046</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I76" t="n">
-        <v>-212308</v>
-      </c>
-      <c r="J76" t="s">
-        <v>28</v>
-      </c>
+        <v>506629</v>
+      </c>
+      <c r="J76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>151</v>
@@ -4064,49 +4052,49 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
-        <v>-74748</v>
+        <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I77" t="n">
-        <v>-74748</v>
+        <v>0</v>
       </c>
       <c r="J77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>155046</v>
+        <v>-289</v>
       </c>
       <c r="H78" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="I78" t="n">
-        <v>506629</v>
+        <v>-289</v>
       </c>
       <c r="J78"/>
     </row>
@@ -4118,22 +4106,22 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -4148,25 +4136,25 @@
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
-        <v>-289</v>
+        <v>230697</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="I80" t="n">
-        <v>-289</v>
+        <v>-1711394</v>
       </c>
       <c r="J80"/>
     </row>
@@ -4178,25 +4166,25 @@
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
-        <v>230697</v>
+        <v>-16203</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I81" t="n">
-        <v>-1711394</v>
+        <v>908202</v>
       </c>
       <c r="J81"/>
     </row>
@@ -4208,25 +4196,25 @@
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="G82" t="n">
-        <v>-16203</v>
+        <v>-3928</v>
       </c>
       <c r="H82" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I82" t="n">
-        <v>908202</v>
+        <v>-3928</v>
       </c>
       <c r="J82"/>
     </row>
@@ -4238,216 +4226,216 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D83" t="n">
         <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
-        <v>-3928</v>
+        <v>-76862</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I83" t="n">
-        <v>-3928</v>
+        <v>-76862</v>
       </c>
       <c r="J83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>36</v>
       </c>
       <c r="G84" t="n">
-        <v>-76862</v>
+        <v>-10148</v>
       </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I84" t="n">
-        <v>-1700125</v>
-      </c>
-      <c r="J84"/>
+        <v>-10148</v>
+      </c>
+      <c r="J84" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>61</v>
+      </c>
+      <c r="F85" t="s">
         <v>166</v>
       </c>
-      <c r="D85" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" t="n">
-        <v>22</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
       <c r="G85" t="n">
-        <v>-10148</v>
+        <v>398922</v>
       </c>
       <c r="H85" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="I85" t="n">
-        <v>-1633411</v>
-      </c>
-      <c r="J85" t="s">
-        <v>28</v>
-      </c>
+        <v>-719139</v>
+      </c>
+      <c r="J85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
         <v>114</v>
       </c>
-      <c r="B86" t="s">
-        <v>115</v>
-      </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
-        <v>398922</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I86" t="n">
-        <v>-719139</v>
+        <v>59781</v>
       </c>
       <c r="J86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
         <v>114</v>
       </c>
-      <c r="B87" t="s">
-        <v>115</v>
-      </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I87" t="n">
-        <v>59781</v>
+        <v>977914</v>
       </c>
       <c r="J87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
         <v>114</v>
       </c>
-      <c r="B88" t="s">
-        <v>115</v>
-      </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2558</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I88" t="n">
-        <v>977914</v>
+        <v>-654693</v>
       </c>
       <c r="J88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
         <v>114</v>
       </c>
-      <c r="B89" t="s">
-        <v>115</v>
-      </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G89" t="n">
-        <v>2558</v>
+        <v>-302183</v>
       </c>
       <c r="H89" t="s">
         <v>178</v>
       </c>
       <c r="I89" t="n">
-        <v>-654693</v>
+        <v>-302183</v>
       </c>
       <c r="J89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
         <v>114</v>
-      </c>
-      <c r="B90" t="s">
-        <v>115</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -4456,91 +4444,91 @@
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" t="s">
         <v>180</v>
       </c>
       <c r="G90" t="n">
-        <v>-302183</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I90" t="n">
-        <v>-302183</v>
+        <v>-2475504</v>
       </c>
       <c r="J90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
         <v>114</v>
       </c>
-      <c r="B91" t="s">
-        <v>115</v>
-      </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-6674</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I91" t="n">
-        <v>-2475504</v>
+        <v>-79132</v>
       </c>
       <c r="J91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
         <v>114</v>
       </c>
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G92" t="n">
-        <v>-6674</v>
+        <v>-1439</v>
       </c>
       <c r="H92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I92" t="n">
-        <v>-79132</v>
+        <v>425710</v>
       </c>
       <c r="J92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
         <v>114</v>
       </c>
-      <c r="B93" t="s">
-        <v>115</v>
-      </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -4549,115 +4537,115 @@
         <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G93" t="n">
-        <v>-1439</v>
+        <v>-1446</v>
       </c>
       <c r="H93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I93" t="n">
-        <v>425710</v>
+        <v>425703</v>
       </c>
       <c r="J93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" t="s">
         <v>114</v>
       </c>
-      <c r="B94" t="s">
-        <v>115</v>
-      </c>
       <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>76</v>
+      </c>
+      <c r="F94" t="s">
         <v>190</v>
       </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>46</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
-      </c>
       <c r="G94" t="n">
-        <v>-1446</v>
+        <v>-9069</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I94" t="n">
-        <v>425703</v>
+        <v>-96754</v>
       </c>
       <c r="J94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
         <v>114</v>
       </c>
-      <c r="B95" t="s">
-        <v>115</v>
-      </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G95" t="n">
-        <v>-9069</v>
+        <v>3291</v>
       </c>
       <c r="H95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I95" t="n">
-        <v>-96754</v>
+        <v>9346</v>
       </c>
       <c r="J95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
         <v>114</v>
       </c>
-      <c r="B96" t="s">
-        <v>115</v>
-      </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G96" t="n">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>196</v>
       </c>
       <c r="I96" t="n">
-        <v>9346</v>
+        <v>0</v>
       </c>
       <c r="J96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
-      </c>
-      <c r="B97" t="s">
-        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>197</v>
@@ -4666,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F97" t="s">
         <v>198</v>
@@ -4684,10 +4672,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
         <v>114</v>
-      </c>
-      <c r="B98" t="s">
-        <v>115</v>
       </c>
       <c r="C98" t="s">
         <v>199</v>
@@ -4696,169 +4684,169 @@
         <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
         <v>200</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-2038</v>
       </c>
       <c r="H98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>-256559</v>
       </c>
       <c r="J98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
         <v>114</v>
       </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G99" t="n">
-        <v>-2038</v>
+        <v>-96960</v>
       </c>
       <c r="H99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I99" t="n">
-        <v>-256559</v>
+        <v>-1016075</v>
       </c>
       <c r="J99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" t="s">
-        <v>115</v>
-      </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G100" t="n">
-        <v>-96960</v>
+        <v>-161625</v>
       </c>
       <c r="H100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I100" t="n">
-        <v>-1016075</v>
+        <v>-1010286</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
         <v>114</v>
       </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G101" t="n">
-        <v>-161625</v>
+        <v>-14478</v>
       </c>
       <c r="H101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I101" t="n">
-        <v>-1010286</v>
+        <v>19437</v>
       </c>
       <c r="J101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
         <v>114</v>
       </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G102" t="n">
-        <v>-14478</v>
+        <v>203006</v>
       </c>
       <c r="H102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I102" t="n">
-        <v>19437</v>
+        <v>1656972</v>
       </c>
       <c r="J102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G103" t="n">
-        <v>203006</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I103" t="n">
-        <v>1656972</v>
+        <v>-373233</v>
       </c>
       <c r="J103"/>
     </row>
@@ -4870,25 +4858,25 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I104" t="n">
-        <v>-373233</v>
+        <v>-8201</v>
       </c>
       <c r="J104"/>
     </row>
@@ -4900,25 +4888,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>216113</v>
       </c>
       <c r="H105" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="I105" t="n">
-        <v>-8201</v>
+        <v>-226946</v>
       </c>
       <c r="J105"/>
     </row>
@@ -4930,25 +4918,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
         <v>222</v>
       </c>
-      <c r="D106" t="n">
-        <v>2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s">
-        <v>96</v>
-      </c>
       <c r="G106" t="n">
-        <v>216113</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="I106" t="n">
-        <v>-226946</v>
+        <v>1803894</v>
       </c>
       <c r="J106"/>
     </row>
@@ -4960,25 +4948,25 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I107" t="n">
-        <v>1803894</v>
+        <v>4161391</v>
       </c>
       <c r="J107"/>
     </row>
@@ -4990,27 +4978,29 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I108" t="n">
-        <v>4161391</v>
-      </c>
-      <c r="J108"/>
+        <v>3561</v>
+      </c>
+      <c r="J108" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -5020,29 +5010,27 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>-33600</v>
       </c>
       <c r="H109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I109" t="n">
-        <v>-1613112</v>
-      </c>
-      <c r="J109" t="s">
-        <v>28</v>
-      </c>
+        <v>-212620</v>
+      </c>
+      <c r="J109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -5052,7 +5040,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -5061,16 +5049,16 @@
         <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="G110" t="n">
-        <v>-33600</v>
+        <v>-3329</v>
       </c>
       <c r="H110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I110" t="n">
-        <v>-1835883</v>
+        <v>-3329</v>
       </c>
       <c r="J110"/>
     </row>
@@ -5082,25 +5070,25 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>61</v>
+      </c>
+      <c r="F111" t="s">
         <v>231</v>
       </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>62</v>
-      </c>
-      <c r="F111" t="s">
-        <v>36</v>
-      </c>
       <c r="G111" t="n">
-        <v>-3329</v>
+        <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="I111" t="n">
-        <v>-1626592</v>
+        <v>130134</v>
       </c>
       <c r="J111"/>
     </row>
@@ -5112,25 +5100,25 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>57628</v>
       </c>
       <c r="H112" t="s">
         <v>234</v>
       </c>
       <c r="I112" t="n">
-        <v>130134</v>
+        <v>57628</v>
       </c>
       <c r="J112"/>
     </row>
@@ -5148,19 +5136,19 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F113" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="G113" t="n">
-        <v>57628</v>
+        <v>131524</v>
       </c>
       <c r="H113" t="s">
         <v>236</v>
       </c>
       <c r="I113" t="n">
-        <v>57628</v>
+        <v>258795</v>
       </c>
       <c r="J113"/>
     </row>
@@ -5178,21 +5166,23 @@
         <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F114" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>131524</v>
+        <v>-56469</v>
       </c>
       <c r="H114" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="I114" t="n">
-        <v>258795</v>
-      </c>
-      <c r="J114"/>
+        <v>63587</v>
+      </c>
+      <c r="J114" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -5202,29 +5192,27 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G115" t="n">
-        <v>-56469</v>
+        <v>-1080</v>
       </c>
       <c r="H115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I115" t="n">
-        <v>-1553086</v>
-      </c>
-      <c r="J115" t="s">
-        <v>28</v>
-      </c>
+        <v>-1080</v>
+      </c>
+      <c r="J115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -5234,25 +5222,25 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
+        <v>93</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-117119</v>
+      </c>
+      <c r="H116" t="s">
         <v>36</v>
       </c>
-      <c r="G116" t="n">
-        <v>-1080</v>
-      </c>
-      <c r="H116" t="s">
-        <v>37</v>
-      </c>
       <c r="I116" t="n">
-        <v>-1624343</v>
+        <v>-129101</v>
       </c>
       <c r="J116"/>
     </row>
@@ -5264,25 +5252,25 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="G117" t="n">
-        <v>-117119</v>
+        <v>-93738</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I117" t="n">
-        <v>-1752364</v>
+        <v>-93738</v>
       </c>
       <c r="J117"/>
     </row>
@@ -5294,55 +5282,55 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>72</v>
+      </c>
+      <c r="F118" t="s">
         <v>242</v>
       </c>
-      <c r="D118" t="n">
-        <v>2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>53</v>
-      </c>
-      <c r="F118" t="s">
-        <v>36</v>
-      </c>
       <c r="G118" t="n">
-        <v>-93738</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="I118" t="n">
-        <v>-1717001</v>
+        <v>-107759</v>
       </c>
       <c r="J118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I119" t="n">
-        <v>-107759</v>
+        <v>662940</v>
       </c>
       <c r="J119"/>
     </row>
@@ -5354,25 +5342,25 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>-135493</v>
       </c>
       <c r="H120" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="I120" t="n">
-        <v>662940</v>
+        <v>-135493</v>
       </c>
       <c r="J120"/>
     </row>
@@ -5384,7 +5372,7 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
@@ -5393,13 +5381,13 @@
         <v>63</v>
       </c>
       <c r="F121" t="s">
+        <v>249</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
         <v>250</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>251</v>
       </c>
       <c r="I121" t="n">
         <v>947319</v>
@@ -5414,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -5423,13 +5411,13 @@
         <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G122" t="n">
         <v>6153</v>
       </c>
       <c r="H122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I122" t="n">
         <v>-149364</v>
@@ -5444,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -5453,13 +5441,13 @@
         <v>68</v>
       </c>
       <c r="F123" t="s">
+        <v>255</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
         <v>256</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>257</v>
       </c>
       <c r="I123" t="n">
         <v>517092</v>
@@ -5474,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -5504,7 +5492,7 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
@@ -5513,13 +5501,13 @@
         <v>64</v>
       </c>
       <c r="F125" t="s">
+        <v>259</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
         <v>260</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>261</v>
       </c>
       <c r="I125" t="n">
         <v>1740306</v>
@@ -5534,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
@@ -5543,13 +5531,13 @@
         <v>65</v>
       </c>
       <c r="F126" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
         <v>263</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>264</v>
       </c>
       <c r="I126" t="n">
         <v>-817304</v>
@@ -5564,7 +5552,7 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
@@ -5573,7 +5561,7 @@
         <v>54</v>
       </c>
       <c r="F127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G127" t="n">
         <v>1618</v>
@@ -5594,7 +5582,7 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D128" t="n">
         <v>2</v>
@@ -5624,7 +5612,7 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D129" t="n">
         <v>2</v>
@@ -5633,13 +5621,13 @@
         <v>12</v>
       </c>
       <c r="F129" t="s">
+        <v>267</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
         <v>268</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
-        <v>269</v>
       </c>
       <c r="I129" t="n">
         <v>178885</v>
@@ -5654,7 +5642,7 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D130" t="n">
         <v>2</v>
@@ -5663,13 +5651,13 @@
         <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I130" t="n">
         <v>-650607</v>
@@ -5684,7 +5672,7 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D131" t="n">
         <v>2</v>
@@ -5693,13 +5681,13 @@
         <v>61</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G131" t="n">
         <v>8808</v>
       </c>
       <c r="H131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I131" t="n">
         <v>8808</v>
@@ -5714,7 +5702,7 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D132" t="n">
         <v>2</v>
@@ -5746,7 +5734,7 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D133" t="n">
         <v>2</v>
@@ -5755,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G133" t="n">
         <v>181564</v>
@@ -5776,7 +5764,7 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D134" t="n">
         <v>2</v>
@@ -5806,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" t="n">
         <v>2</v>
@@ -5815,13 +5803,13 @@
         <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G135" t="n">
         <v>15390</v>
       </c>
       <c r="H135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I135" t="n">
         <v>-230128</v>
@@ -5836,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D136" t="n">
         <v>2</v>
@@ -5851,22 +5839,22 @@
         <v>-41220</v>
       </c>
       <c r="H136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I136" t="n">
-        <v>-1664483</v>
+        <v>-41220</v>
       </c>
       <c r="J136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
         <v>101</v>
       </c>
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
       <c r="C137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D137" t="n">
         <v>2</v>
@@ -5875,13 +5863,13 @@
         <v>65</v>
       </c>
       <c r="F137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5890,13 +5878,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" t="s">
         <v>101</v>
       </c>
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
       <c r="C138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D138" t="n">
         <v>2</v>
@@ -5905,13 +5893,13 @@
         <v>61</v>
       </c>
       <c r="F138" t="s">
+        <v>282</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
         <v>283</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="s">
-        <v>284</v>
       </c>
       <c r="I138" t="n">
         <v>-1566251</v>
@@ -5920,13 +5908,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
         <v>101</v>
       </c>
-      <c r="B139" t="s">
-        <v>102</v>
-      </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
@@ -5935,13 +5923,13 @@
         <v>73</v>
       </c>
       <c r="F139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G139" t="n">
         <v>1609</v>
       </c>
       <c r="H139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I139" t="n">
         <v>-185502</v>
@@ -5950,13 +5938,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
         <v>101</v>
       </c>
-      <c r="B140" t="s">
-        <v>102</v>
-      </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D140" t="n">
         <v>2</v>
@@ -5965,13 +5953,13 @@
         <v>62</v>
       </c>
       <c r="F140" t="s">
+        <v>288</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>289</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>290</v>
       </c>
       <c r="I140" t="n">
         <v>521817</v>
@@ -5980,13 +5968,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" t="s">
         <v>101</v>
       </c>
-      <c r="B141" t="s">
-        <v>102</v>
-      </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
@@ -5995,13 +5983,13 @@
         <v>75</v>
       </c>
       <c r="F141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G141" t="n">
         <v>-28458</v>
       </c>
       <c r="H141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I141" t="n">
         <v>-3823223</v>
@@ -6010,13 +5998,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" t="s">
         <v>101</v>
       </c>
-      <c r="B142" t="s">
-        <v>102</v>
-      </c>
       <c r="C142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D142" t="n">
         <v>2</v>
@@ -6025,13 +6013,13 @@
         <v>107</v>
       </c>
       <c r="F142" t="s">
+        <v>294</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
         <v>295</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
-        <v>296</v>
       </c>
       <c r="I142" t="n">
         <v>-667262</v>
@@ -6040,13 +6028,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" t="s">
         <v>101</v>
       </c>
-      <c r="B143" t="s">
-        <v>102</v>
-      </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -6055,13 +6043,13 @@
         <v>61</v>
       </c>
       <c r="F143" t="s">
+        <v>297</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
         <v>298</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="s">
-        <v>299</v>
       </c>
       <c r="I143" t="n">
         <v>832642</v>
@@ -6070,13 +6058,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" t="s">
         <v>101</v>
       </c>
-      <c r="B144" t="s">
-        <v>102</v>
-      </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D144" t="n">
         <v>2</v>
@@ -6085,13 +6073,13 @@
         <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G144" t="n">
         <v>-3132</v>
       </c>
       <c r="H144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I144" t="n">
         <v>-826168</v>
@@ -6100,13 +6088,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" t="s">
         <v>101</v>
       </c>
-      <c r="B145" t="s">
-        <v>102</v>
-      </c>
       <c r="C145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
@@ -6115,13 +6103,13 @@
         <v>53</v>
       </c>
       <c r="F145" t="s">
+        <v>303</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
         <v>304</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
-        <v>305</v>
       </c>
       <c r="I145" t="n">
         <v>-112224</v>
@@ -6130,13 +6118,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" t="s">
         <v>101</v>
       </c>
-      <c r="B146" t="s">
-        <v>102</v>
-      </c>
       <c r="C146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -6145,13 +6133,13 @@
         <v>83</v>
       </c>
       <c r="F146" t="s">
+        <v>306</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>307</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
-        <v>308</v>
       </c>
       <c r="I146" t="n">
         <v>623748</v>
@@ -6160,13 +6148,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
         <v>101</v>
       </c>
-      <c r="B147" t="s">
-        <v>102</v>
-      </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
@@ -6175,13 +6163,13 @@
         <v>62</v>
       </c>
       <c r="F147" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I147" t="n">
         <v>-165200</v>
@@ -6190,13 +6178,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" t="s">
         <v>101</v>
       </c>
-      <c r="B148" t="s">
-        <v>102</v>
-      </c>
       <c r="C148" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -6205,13 +6193,13 @@
         <v>56</v>
       </c>
       <c r="F148" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I148" t="n">
         <v>-165217</v>
@@ -6220,13 +6208,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>100</v>
+      </c>
+      <c r="B149" t="s">
         <v>101</v>
       </c>
-      <c r="B149" t="s">
-        <v>102</v>
-      </c>
       <c r="C149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
@@ -6235,13 +6223,13 @@
         <v>59</v>
       </c>
       <c r="F149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -6250,13 +6238,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>100</v>
+      </c>
+      <c r="B150" t="s">
         <v>101</v>
       </c>
-      <c r="B150" t="s">
-        <v>102</v>
-      </c>
       <c r="C150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
@@ -6265,13 +6253,13 @@
         <v>68</v>
       </c>
       <c r="F150" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G150" t="n">
         <v>17962</v>
       </c>
       <c r="H150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I150" t="n">
         <v>-97856</v>
@@ -6280,13 +6268,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" t="s">
         <v>101</v>
       </c>
-      <c r="B151" t="s">
-        <v>102</v>
-      </c>
       <c r="C151" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D151" t="n">
         <v>2</v>
@@ -6295,13 +6283,13 @@
         <v>52</v>
       </c>
       <c r="F151" t="s">
+        <v>315</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
         <v>316</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
-        <v>317</v>
       </c>
       <c r="I151" t="n">
         <v>-1239456</v>
@@ -6310,13 +6298,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" t="s">
         <v>101</v>
       </c>
-      <c r="B152" t="s">
-        <v>102</v>
-      </c>
       <c r="C152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D152" t="n">
         <v>2</v>
@@ -6325,13 +6313,13 @@
         <v>63</v>
       </c>
       <c r="F152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G152" t="n">
         <v>-72116</v>
       </c>
       <c r="H152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I152" t="n">
         <v>-2403627</v>
@@ -6340,13 +6328,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
         <v>101</v>
       </c>
-      <c r="B153" t="s">
-        <v>102</v>
-      </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D153" t="n">
         <v>2</v>
@@ -6355,13 +6343,13 @@
         <v>66</v>
       </c>
       <c r="F153" t="s">
+        <v>321</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
         <v>322</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="s">
-        <v>323</v>
       </c>
       <c r="I153" t="n">
         <v>-166716</v>
@@ -6370,13 +6358,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>100</v>
+      </c>
+      <c r="B154" t="s">
         <v>101</v>
       </c>
-      <c r="B154" t="s">
-        <v>102</v>
-      </c>
       <c r="C154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D154" t="n">
         <v>2</v>
@@ -6385,13 +6373,13 @@
         <v>62</v>
       </c>
       <c r="F154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G154" t="n">
         <v>-343531</v>
       </c>
       <c r="H154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I154" t="n">
         <v>-614608</v>
@@ -6400,13 +6388,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>100</v>
+      </c>
+      <c r="B155" t="s">
         <v>101</v>
       </c>
-      <c r="B155" t="s">
-        <v>102</v>
-      </c>
       <c r="C155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D155" t="n">
         <v>2</v>
@@ -6415,13 +6403,13 @@
         <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G155" t="n">
         <v>6319</v>
       </c>
       <c r="H155" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I155" t="n">
         <v>27302</v>
@@ -6430,13 +6418,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156" t="s">
         <v>101</v>
       </c>
-      <c r="B156" t="s">
-        <v>102</v>
-      </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
@@ -6445,13 +6433,13 @@
         <v>74</v>
       </c>
       <c r="F156" t="s">
+        <v>330</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
         <v>331</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="s">
-        <v>332</v>
       </c>
       <c r="I156" t="n">
         <v>203171</v>
@@ -6460,13 +6448,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>100</v>
+      </c>
+      <c r="B157" t="s">
         <v>101</v>
       </c>
-      <c r="B157" t="s">
-        <v>102</v>
-      </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D157" t="n">
         <v>2</v>
@@ -6475,13 +6463,13 @@
         <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G157" t="n">
         <v>37319</v>
       </c>
       <c r="H157" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I157" t="n">
         <v>-129023</v>
@@ -6490,13 +6478,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>100</v>
+      </c>
+      <c r="B158" t="s">
         <v>101</v>
       </c>
-      <c r="B158" t="s">
-        <v>102</v>
-      </c>
       <c r="C158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D158" t="n">
         <v>2</v>
@@ -6511,22 +6499,22 @@
         <v>-34341</v>
       </c>
       <c r="H158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I158" t="n">
-        <v>-1657604</v>
+        <v>-34341</v>
       </c>
       <c r="J158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>100</v>
+      </c>
+      <c r="B159" t="s">
         <v>101</v>
       </c>
-      <c r="B159" t="s">
-        <v>102</v>
-      </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" t="n">
         <v>2</v>
@@ -6535,13 +6523,13 @@
         <v>61</v>
       </c>
       <c r="F159" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I159" t="n">
         <v>-165262</v>
@@ -6550,13 +6538,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>100</v>
+      </c>
+      <c r="B160" t="s">
         <v>101</v>
       </c>
-      <c r="B160" t="s">
-        <v>102</v>
-      </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
@@ -6565,13 +6553,13 @@
         <v>26</v>
       </c>
       <c r="F160" t="s">
+        <v>338</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
         <v>339</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>340</v>
       </c>
       <c r="I160" t="n">
         <v>-314393</v>
@@ -6580,13 +6568,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>100</v>
+      </c>
+      <c r="B161" t="s">
         <v>101</v>
       </c>
-      <c r="B161" t="s">
-        <v>102</v>
-      </c>
       <c r="C161" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
@@ -6595,13 +6583,13 @@
         <v>67</v>
       </c>
       <c r="F161" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -6610,13 +6598,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B162" t="s">
         <v>101</v>
       </c>
-      <c r="B162" t="s">
-        <v>102</v>
-      </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D162" t="n">
         <v>2</v>
@@ -6625,13 +6613,13 @@
         <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G162" t="n">
         <v>124107</v>
       </c>
       <c r="H162" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I162" t="n">
         <v>209642</v>
@@ -6640,13 +6628,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>100</v>
+      </c>
+      <c r="B163" t="s">
         <v>101</v>
       </c>
-      <c r="B163" t="s">
-        <v>102</v>
-      </c>
       <c r="C163" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D163" t="n">
         <v>2</v>
@@ -6655,13 +6643,13 @@
         <v>46</v>
       </c>
       <c r="F163" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -6670,13 +6658,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>100</v>
+      </c>
+      <c r="B164" t="s">
         <v>101</v>
       </c>
-      <c r="B164" t="s">
-        <v>102</v>
-      </c>
       <c r="C164" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
@@ -6685,13 +6673,13 @@
         <v>45</v>
       </c>
       <c r="F164" t="s">
+        <v>348</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
         <v>349</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="s">
-        <v>350</v>
       </c>
       <c r="I164" t="n">
         <v>627021</v>
@@ -6700,13 +6688,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>100</v>
+      </c>
+      <c r="B165" t="s">
         <v>101</v>
       </c>
-      <c r="B165" t="s">
-        <v>102</v>
-      </c>
       <c r="C165" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D165" t="n">
         <v>2</v>
@@ -6715,13 +6703,13 @@
         <v>62</v>
       </c>
       <c r="F165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G165" t="n">
         <v>-23558</v>
       </c>
       <c r="H165" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I165" t="n">
         <v>-3846235</v>
@@ -6730,13 +6718,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>100</v>
+      </c>
+      <c r="B166" t="s">
         <v>101</v>
       </c>
-      <c r="B166" t="s">
-        <v>102</v>
-      </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
@@ -6745,13 +6733,13 @@
         <v>69</v>
       </c>
       <c r="F166" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -6760,13 +6748,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B167" t="s">
         <v>101</v>
       </c>
-      <c r="B167" t="s">
-        <v>102</v>
-      </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -6775,13 +6763,13 @@
         <v>67</v>
       </c>
       <c r="F167" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G167" t="n">
         <v>-165032</v>
       </c>
       <c r="H167" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I167" t="n">
         <v>-357318</v>
@@ -6790,13 +6778,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>100</v>
+      </c>
+      <c r="B168" t="s">
         <v>101</v>
       </c>
-      <c r="B168" t="s">
-        <v>102</v>
-      </c>
       <c r="C168" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D168" t="n">
         <v>2</v>
@@ -6805,13 +6793,13 @@
         <v>23</v>
       </c>
       <c r="F168" t="s">
+        <v>359</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
         <v>360</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" t="s">
-        <v>361</v>
       </c>
       <c r="I168" t="n">
         <v>227676</v>
@@ -6820,13 +6808,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169" t="s">
         <v>101</v>
       </c>
-      <c r="B169" t="s">
-        <v>102</v>
-      </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
@@ -6835,13 +6823,13 @@
         <v>65</v>
       </c>
       <c r="F169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G169" t="n">
         <v>362621</v>
       </c>
       <c r="H169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I169" t="n">
         <v>-1039184</v>
@@ -6850,13 +6838,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" t="s">
         <v>101</v>
       </c>
-      <c r="B170" t="s">
-        <v>102</v>
-      </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
@@ -6865,13 +6853,13 @@
         <v>59</v>
       </c>
       <c r="F170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G170" t="n">
         <v>2387</v>
       </c>
       <c r="H170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I170" t="n">
         <v>2387</v>
@@ -6886,7 +6874,7 @@
         <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D171" t="n">
         <v>2</v>
@@ -6895,13 +6883,13 @@
         <v>72</v>
       </c>
       <c r="F171" t="s">
+        <v>367</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
         <v>368</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="s">
-        <v>369</v>
       </c>
       <c r="I171" t="n">
         <v>496323</v>
@@ -6916,7 +6904,7 @@
         <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D172" t="n">
         <v>2</v>
@@ -6925,13 +6913,13 @@
         <v>61</v>
       </c>
       <c r="F172" t="s">
+        <v>370</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
         <v>371</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="s">
-        <v>372</v>
       </c>
       <c r="I172" t="n">
         <v>1213603</v>
@@ -6946,7 +6934,7 @@
         <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D173" t="n">
         <v>2</v>
@@ -6955,13 +6943,13 @@
         <v>69</v>
       </c>
       <c r="F173" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G173" t="n">
         <v>-622</v>
       </c>
       <c r="H173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I173" t="n">
         <v>-87256</v>
@@ -6976,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D174" t="n">
         <v>2</v>
@@ -6985,13 +6973,13 @@
         <v>50</v>
       </c>
       <c r="F174" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G174" t="n">
         <v>21486</v>
       </c>
       <c r="H174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I174" t="n">
         <v>-22619</v>
@@ -7006,7 +6994,7 @@
         <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D175" t="n">
         <v>2</v>
@@ -7015,13 +7003,13 @@
         <v>20</v>
       </c>
       <c r="F175" t="s">
+        <v>379</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
         <v>380</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="s">
-        <v>381</v>
       </c>
       <c r="I175" t="n">
         <v>-1401120</v>
@@ -7036,7 +7024,7 @@
         <v>22</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D176" t="n">
         <v>2</v>
@@ -7051,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I176" t="n">
-        <v>-1623108</v>
+        <v>0</v>
       </c>
       <c r="J176"/>
     </row>
@@ -7066,7 +7054,7 @@
         <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D177" t="n">
         <v>2</v>
@@ -7075,13 +7063,13 @@
         <v>67</v>
       </c>
       <c r="F177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -7096,7 +7084,7 @@
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D178" t="n">
         <v>2</v>
@@ -7105,13 +7093,13 @@
         <v>127</v>
       </c>
       <c r="F178" t="s">
+        <v>385</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
         <v>386</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="s">
-        <v>387</v>
       </c>
       <c r="I178" t="n">
         <v>118443</v>
@@ -7126,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="C179" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D179" t="n">
         <v>2</v>
@@ -7156,7 +7144,7 @@
         <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
@@ -7165,13 +7153,13 @@
         <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7186,7 +7174,7 @@
         <v>22</v>
       </c>
       <c r="C181" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D181" t="n">
         <v>2</v>
@@ -7195,13 +7183,13 @@
         <v>17</v>
       </c>
       <c r="F181" t="s">
+        <v>391</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
         <v>392</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="s">
-        <v>393</v>
       </c>
       <c r="I181" t="n">
         <v>-126482</v>
@@ -7216,7 +7204,7 @@
         <v>22</v>
       </c>
       <c r="C182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D182" t="n">
         <v>2</v>
@@ -7225,13 +7213,13 @@
         <v>80</v>
       </c>
       <c r="F182" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G182" t="n">
         <v>-27367</v>
       </c>
       <c r="H182" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I182" t="n">
         <v>-84743</v>
@@ -7246,7 +7234,7 @@
         <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D183" t="n">
         <v>2</v>
@@ -7255,13 +7243,13 @@
         <v>65</v>
       </c>
       <c r="F183" t="s">
+        <v>396</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="s">
         <v>397</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="s">
-        <v>398</v>
       </c>
       <c r="I183" t="n">
         <v>-9712</v>
@@ -7276,7 +7264,7 @@
         <v>22</v>
       </c>
       <c r="C184" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
@@ -7285,13 +7273,13 @@
         <v>56</v>
       </c>
       <c r="F184" t="s">
+        <v>399</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="s">
         <v>400</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" t="s">
-        <v>401</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -7306,7 +7294,7 @@
         <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
@@ -7315,13 +7303,13 @@
         <v>25</v>
       </c>
       <c r="F185" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G185" t="n">
         <v>179566</v>
       </c>
       <c r="H185" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I185" t="n">
         <v>-963029</v>
@@ -7336,25 +7324,25 @@
         <v>22</v>
       </c>
       <c r="C186" t="s">
+        <v>404</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>23</v>
+      </c>
+      <c r="F186" t="s">
         <v>405</v>
       </c>
-      <c r="D186" t="n">
-        <v>2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>67</v>
-      </c>
-      <c r="F186" t="s">
-        <v>406</v>
-      </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I186" t="n">
-        <v>-36930</v>
+        <v>0</v>
       </c>
       <c r="J186"/>
     </row>
@@ -7366,25 +7354,25 @@
         <v>22</v>
       </c>
       <c r="C187" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D187" t="n">
         <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>5147</v>
       </c>
       <c r="H187" t="s">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>29198</v>
       </c>
       <c r="J187"/>
     </row>
@@ -7396,25 +7384,25 @@
         <v>22</v>
       </c>
       <c r="C188" t="s">
+        <v>408</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>67</v>
+      </c>
+      <c r="F188" t="s">
+        <v>409</v>
+      </c>
+      <c r="G188" t="n">
+        <v>169637</v>
+      </c>
+      <c r="H188" t="s">
         <v>410</v>
       </c>
-      <c r="D188" t="n">
-        <v>2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>43</v>
-      </c>
-      <c r="F188" t="s">
-        <v>411</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5147</v>
-      </c>
-      <c r="H188" t="s">
-        <v>299</v>
-      </c>
       <c r="I188" t="n">
-        <v>29198</v>
+        <v>1746286</v>
       </c>
       <c r="J188"/>
     </row>
@@ -7426,25 +7414,25 @@
         <v>22</v>
       </c>
       <c r="C189" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F189" t="s">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="G189" t="n">
-        <v>169637</v>
+        <v>-1121</v>
       </c>
       <c r="H189" t="s">
-        <v>414</v>
+        <v>36</v>
       </c>
       <c r="I189" t="n">
-        <v>1746286</v>
+        <v>-1121</v>
       </c>
       <c r="J189"/>
     </row>
@@ -7456,25 +7444,25 @@
         <v>22</v>
       </c>
       <c r="C190" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D190" t="n">
         <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="G190" t="n">
-        <v>-1121</v>
+        <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I190" t="n">
-        <v>-1624384</v>
+        <v>-165307</v>
       </c>
       <c r="J190"/>
     </row>
@@ -7486,25 +7474,25 @@
         <v>22</v>
       </c>
       <c r="C191" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D191" t="n">
         <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>127</v>
+        <v>414</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>128</v>
+        <v>414</v>
       </c>
       <c r="I191" t="n">
-        <v>-165307</v>
+        <v>0</v>
       </c>
       <c r="J191"/>
     </row>
@@ -7516,25 +7504,25 @@
         <v>22</v>
       </c>
       <c r="C192" t="s">
+        <v>415</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>73</v>
+      </c>
+      <c r="F192" t="s">
+        <v>416</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-11819</v>
+      </c>
+      <c r="H192" t="s">
         <v>417</v>
       </c>
-      <c r="D192" t="n">
-        <v>2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>13</v>
-      </c>
-      <c r="F192" t="s">
-        <v>418</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="s">
-        <v>418</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>287670</v>
       </c>
       <c r="J192"/>
     </row>
@@ -7546,7 +7534,7 @@
         <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D193" t="n">
         <v>2</v>
@@ -7555,88 +7543,88 @@
         <v>73</v>
       </c>
       <c r="F193" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G193" t="n">
-        <v>-11819</v>
+        <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I193" t="n">
-        <v>287670</v>
+        <v>0</v>
       </c>
       <c r="J193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D194" t="n">
         <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F194" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>25562</v>
       </c>
       <c r="H194" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>25562</v>
       </c>
       <c r="J194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" t="s">
         <v>67</v>
       </c>
-      <c r="B195" t="s">
-        <v>68</v>
-      </c>
       <c r="C195" t="s">
+        <v>422</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>67</v>
+      </c>
+      <c r="F195" t="s">
+        <v>423</v>
+      </c>
+      <c r="G195" t="n">
+        <v>22810</v>
+      </c>
+      <c r="H195" t="s">
         <v>424</v>
       </c>
-      <c r="D195" t="n">
-        <v>2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>71</v>
-      </c>
-      <c r="F195" t="s">
-        <v>425</v>
-      </c>
-      <c r="G195" t="n">
-        <v>25562</v>
-      </c>
-      <c r="H195" t="s">
-        <v>425</v>
-      </c>
       <c r="I195" t="n">
-        <v>25562</v>
+        <v>2330802</v>
       </c>
       <c r="J195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" t="s">
         <v>67</v>
       </c>
-      <c r="B196" t="s">
-        <v>68</v>
-      </c>
       <c r="C196" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D196" t="n">
         <v>2</v>
@@ -7645,378 +7633,348 @@
         <v>67</v>
       </c>
       <c r="F196" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G196" t="n">
-        <v>22810</v>
+        <v>-170782</v>
       </c>
       <c r="H196" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I196" t="n">
-        <v>2330802</v>
+        <v>-170782</v>
       </c>
       <c r="J196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
         <v>67</v>
       </c>
-      <c r="B197" t="s">
-        <v>68</v>
-      </c>
       <c r="C197" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D197" t="n">
         <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F197" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="G197" t="n">
-        <v>-170782</v>
+        <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="I197" t="n">
-        <v>-170782</v>
+        <v>-76243</v>
       </c>
       <c r="J197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" t="s">
         <v>67</v>
       </c>
-      <c r="B198" t="s">
-        <v>68</v>
-      </c>
       <c r="C198" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D198" t="n">
         <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F198" t="s">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="I198" t="n">
-        <v>-76243</v>
+        <v>-214358</v>
       </c>
       <c r="J198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
         <v>67</v>
       </c>
-      <c r="B199" t="s">
-        <v>68</v>
-      </c>
       <c r="C199" t="s">
+        <v>431</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>57</v>
+      </c>
+      <c r="F199" t="s">
         <v>432</v>
       </c>
-      <c r="D199" t="n">
-        <v>2</v>
-      </c>
-      <c r="E199" t="n">
-        <v>62</v>
-      </c>
-      <c r="F199" t="s">
-        <v>433</v>
-      </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>434</v>
+        <v>117</v>
       </c>
       <c r="I199" t="n">
-        <v>-214358</v>
+        <v>-1481518</v>
       </c>
       <c r="J199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" t="s">
         <v>67</v>
       </c>
-      <c r="B200" t="s">
-        <v>68</v>
-      </c>
       <c r="C200" t="s">
+        <v>433</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>65</v>
+      </c>
+      <c r="F200" t="s">
+        <v>434</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-14656</v>
+      </c>
+      <c r="H200" t="s">
         <v>435</v>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="n">
-        <v>57</v>
-      </c>
-      <c r="F200" t="s">
-        <v>436</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="s">
-        <v>118</v>
-      </c>
       <c r="I200" t="n">
-        <v>-1481518</v>
+        <v>675110</v>
       </c>
       <c r="J200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" t="s">
         <v>67</v>
       </c>
-      <c r="B201" t="s">
-        <v>68</v>
-      </c>
       <c r="C201" t="s">
+        <v>436</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>57</v>
+      </c>
+      <c r="F201" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
         <v>437</v>
       </c>
-      <c r="D201" t="n">
-        <v>2</v>
-      </c>
-      <c r="E201" t="n">
-        <v>65</v>
-      </c>
-      <c r="F201" t="s">
-        <v>438</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-14656</v>
-      </c>
-      <c r="H201" t="s">
-        <v>439</v>
-      </c>
       <c r="I201" t="n">
-        <v>675110</v>
+        <v>-1099909</v>
       </c>
       <c r="J201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202" t="s">
         <v>67</v>
       </c>
-      <c r="B202" t="s">
-        <v>68</v>
-      </c>
       <c r="C202" t="s">
+        <v>438</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>439</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
         <v>440</v>
       </c>
-      <c r="D202" t="n">
-        <v>2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>57</v>
-      </c>
-      <c r="F202" t="s">
-        <v>47</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="s">
-        <v>441</v>
-      </c>
       <c r="I202" t="n">
-        <v>-1099909</v>
+        <v>45767</v>
       </c>
       <c r="J202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" t="s">
         <v>67</v>
       </c>
-      <c r="B203" t="s">
-        <v>68</v>
-      </c>
       <c r="C203" t="s">
+        <v>441</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>21</v>
+      </c>
+      <c r="F203" t="s">
         <v>442</v>
       </c>
-      <c r="D203" t="n">
-        <v>2</v>
-      </c>
-      <c r="E203" t="n">
-        <v>50</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
         <v>443</v>
       </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="s">
-        <v>444</v>
-      </c>
       <c r="I203" t="n">
-        <v>45767</v>
+        <v>-182944</v>
       </c>
       <c r="J203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204" t="s">
         <v>67</v>
       </c>
-      <c r="B204" t="s">
-        <v>68</v>
-      </c>
       <c r="C204" t="s">
+        <v>444</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>42</v>
+      </c>
+      <c r="F204" t="s">
         <v>445</v>
       </c>
-      <c r="D204" t="n">
-        <v>2</v>
-      </c>
-      <c r="E204" t="n">
-        <v>21</v>
-      </c>
-      <c r="F204" t="s">
-        <v>446</v>
-      </c>
       <c r="G204" t="n">
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="I204" t="n">
-        <v>-182944</v>
+        <v>21483</v>
       </c>
       <c r="J204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" t="s">
         <v>67</v>
       </c>
-      <c r="B205" t="s">
-        <v>68</v>
-      </c>
       <c r="C205" t="s">
+        <v>446</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>31</v>
+      </c>
+      <c r="F205" t="s">
+        <v>447</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
         <v>448</v>
       </c>
-      <c r="D205" t="n">
-        <v>2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>42</v>
-      </c>
-      <c r="F205" t="s">
-        <v>449</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="s">
-        <v>66</v>
-      </c>
       <c r="I205" t="n">
-        <v>21483</v>
+        <v>253801</v>
       </c>
       <c r="J205"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>66</v>
+      </c>
+      <c r="B206" t="s">
         <v>67</v>
       </c>
-      <c r="B206" t="s">
-        <v>68</v>
-      </c>
       <c r="C206" t="s">
+        <v>449</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>17</v>
+      </c>
+      <c r="F206" t="s">
         <v>450</v>
       </c>
-      <c r="D206" t="n">
-        <v>2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>31</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
         <v>451</v>
       </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="s">
-        <v>452</v>
-      </c>
       <c r="I206" t="n">
-        <v>253801</v>
+        <v>-496135</v>
       </c>
       <c r="J206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" t="s">
         <v>67</v>
       </c>
-      <c r="B207" t="s">
-        <v>68</v>
-      </c>
       <c r="C207" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>45</v>
+      </c>
+      <c r="F207" t="s">
         <v>453</v>
       </c>
-      <c r="D207" t="n">
-        <v>2</v>
-      </c>
-      <c r="E207" t="n">
-        <v>17</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="G207" t="n">
+        <v>-4588</v>
+      </c>
+      <c r="H207" t="s">
         <v>454</v>
       </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" t="s">
-        <v>455</v>
-      </c>
       <c r="I207" t="n">
-        <v>-496135</v>
+        <v>-90734</v>
       </c>
       <c r="J207"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>67</v>
-      </c>
-      <c r="B208" t="s">
-        <v>68</v>
-      </c>
-      <c r="C208" t="s">
-        <v>456</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>45</v>
-      </c>
-      <c r="F208" t="s">
-        <v>457</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4588</v>
-      </c>
-      <c r="H208" t="s">
-        <v>458</v>
-      </c>
-      <c r="I208" t="n">
-        <v>-90734</v>
-      </c>
-      <c r="J208"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
